--- a/yazilim/veri-filtreleme/ayrilmis-veriler-zihinsel.xlsx
+++ b/yazilim/veri-filtreleme/ayrilmis-veriler-zihinsel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9502,6 +9502,721 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>39</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Yüksek Lisans - Doktora</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>7</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>31-60</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Başarma İsteği</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>23</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Üniversite</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>2</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>31-60</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Kendime Meydan Okumak</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>41-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>28</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Üniversite</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>61-90</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Kendime Meydan Okumak</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>56-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>37</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Yüksek Lisans - Doktora</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1-30</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Zihinsel Gelişim</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>56-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>31</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Üniversite</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1-30</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Zihinsel Gelişim</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>24</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Üniversite</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>2</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>91-120</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Problem Çözme Becerilerini geliştirmek</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>26</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Üniversite</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>61-90</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Zihinsel Gelişim</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>25</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Üniversite</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>31-60</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Eğlenmek</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>24</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Erkek</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Yüksek Lisans - Doktora</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>7</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>121+</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Zihinsel Gelişim</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>71-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>25</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Yüksek Lisans - Doktora</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>31-60</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Zihinsel Gelişim</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>27</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Yüksek Lisans - Doktora</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>31-60</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Kendime Meydan Okumak</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>56-70</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>26</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Erkek</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Yüksek Lisans - Doktora</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>2</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>31-60</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Zihinsel Gelişim</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>71-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>28</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Yüksek Lisans - Doktora</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Zihinsel Gelişim</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>28</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Erkek</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Yüksek Lisans - Doktora</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1-30</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Problem Çözme Becerilerini geliştirmek</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>22</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Üniversite</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>2</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>31-60</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Başarma İsteği</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>24</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Üniversite</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1-30</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Problem Çözme Becerilerini geliştirmek</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>30</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Kadın</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Yüksek Lisans - Doktora</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>31-60</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Zihinsel Gelişim</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>86-100</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
